--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H2">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J2">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N2">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O2">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P2">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q2">
-        <v>119.6528763697422</v>
+        <v>2108.018595484996</v>
       </c>
       <c r="R2">
-        <v>1076.87588732768</v>
+        <v>18972.16735936497</v>
       </c>
       <c r="S2">
-        <v>0.04907448715933595</v>
+        <v>0.259471862876152</v>
       </c>
       <c r="T2">
-        <v>0.04907448715933593</v>
+        <v>0.259471862876152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H3">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J3">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N3">
         <v>128.041122</v>
       </c>
       <c r="O3">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P3">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q3">
-        <v>176.9269378437733</v>
+        <v>2438.771622305231</v>
       </c>
       <c r="R3">
-        <v>1592.34244059396</v>
+        <v>21948.94460074707</v>
       </c>
       <c r="S3">
-        <v>0.07256489775076178</v>
+        <v>0.3001836024237944</v>
       </c>
       <c r="T3">
-        <v>0.07256489775076175</v>
+        <v>0.3001836024237944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.145393333333334</v>
+        <v>57.14035266666667</v>
       </c>
       <c r="H4">
-        <v>12.43618</v>
+        <v>171.421058</v>
       </c>
       <c r="I4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="J4">
-        <v>0.1621900462138432</v>
+        <v>0.7274038390747541</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N4">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O4">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P4">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q4">
-        <v>98.87017765330444</v>
+        <v>1362.832514323322</v>
       </c>
       <c r="R4">
-        <v>889.8315988797399</v>
+        <v>12265.4926289099</v>
       </c>
       <c r="S4">
-        <v>0.04055066130374551</v>
+        <v>0.1677483737748077</v>
       </c>
       <c r="T4">
-        <v>0.0405506613037455</v>
+        <v>0.1677483737748078</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>20.318999</v>
       </c>
       <c r="I5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J5">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N5">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O5">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P5">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q5">
-        <v>195.4962597279805</v>
+        <v>249.8691131263525</v>
       </c>
       <c r="R5">
-        <v>1759.466337551824</v>
+        <v>2248.822018137173</v>
       </c>
       <c r="S5">
-        <v>0.08018092818824267</v>
+        <v>0.03075589769320329</v>
       </c>
       <c r="T5">
-        <v>0.08018092818824266</v>
+        <v>0.0307558976932033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>20.318999</v>
       </c>
       <c r="I6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J6">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N6">
         <v>128.041122</v>
       </c>
       <c r="O6">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P6">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q6">
         <v>289.0741588752086</v>
       </c>
       <c r="R6">
-        <v>2601.667429876878</v>
+        <v>2601.667429876877</v>
       </c>
       <c r="S6">
-        <v>0.1185610118889266</v>
+        <v>0.03558156966611111</v>
       </c>
       <c r="T6">
-        <v>0.1185610118889265</v>
+        <v>0.03558156966611112</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>20.318999</v>
       </c>
       <c r="I7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="J7">
-        <v>0.2649961151116367</v>
+        <v>0.08622113322131104</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N7">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O7">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P7">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q7">
         <v>161.5402029294619</v>
@@ -880,10 +880,10 @@
         <v>1453.861826365157</v>
       </c>
       <c r="S7">
-        <v>0.06625417503446747</v>
+        <v>0.01988366586199663</v>
       </c>
       <c r="T7">
-        <v>0.06625417503446746</v>
+        <v>0.01988366586199663</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>43.921413</v>
       </c>
       <c r="I8">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J8">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>28.86405866666667</v>
+        <v>36.89194233333333</v>
       </c>
       <c r="N8">
-        <v>86.59217600000001</v>
+        <v>110.675827</v>
       </c>
       <c r="O8">
-        <v>0.3025739760541936</v>
+        <v>0.3567095043190808</v>
       </c>
       <c r="P8">
-        <v>0.3025739760541935</v>
+        <v>0.3567095043190809</v>
       </c>
       <c r="Q8">
-        <v>422.583413851632</v>
+        <v>540.115411864839</v>
       </c>
       <c r="R8">
-        <v>3803.250724664688</v>
+        <v>4861.038706783551</v>
       </c>
       <c r="S8">
-        <v>0.1733185607066149</v>
+        <v>0.06648174374972553</v>
       </c>
       <c r="T8">
-        <v>0.1733185607066149</v>
+        <v>0.06648174374972556</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>43.921413</v>
       </c>
       <c r="I9">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J9">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.680374</v>
+        <v>42.68037399999999</v>
       </c>
       <c r="N9">
         <v>128.041122</v>
       </c>
       <c r="O9">
-        <v>0.4474066038250393</v>
+        <v>0.4126780562577495</v>
       </c>
       <c r="P9">
-        <v>0.4474066038250392</v>
+        <v>0.4126780562577496</v>
       </c>
       <c r="Q9">
-        <v>624.860777816154</v>
+        <v>624.8607778161539</v>
       </c>
       <c r="R9">
-        <v>5623.747000345386</v>
+        <v>5623.747000345385</v>
       </c>
       <c r="S9">
-        <v>0.256280694185351</v>
+        <v>0.07691288416784402</v>
       </c>
       <c r="T9">
-        <v>0.256280694185351</v>
+        <v>0.07691288416784403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>43.921413</v>
       </c>
       <c r="I10">
-        <v>0.5728138386745201</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="J10">
-        <v>0.5728138386745202</v>
+        <v>0.1863750277039348</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.85061433333333</v>
+        <v>23.85061433333334</v>
       </c>
       <c r="N10">
-        <v>71.55184299999999</v>
+        <v>71.55184300000001</v>
       </c>
       <c r="O10">
-        <v>0.2500194201207672</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="P10">
-        <v>0.2500194201207671</v>
+        <v>0.2306124394231696</v>
       </c>
       <c r="Q10">
-        <v>349.1842274793509</v>
+        <v>349.184227479351</v>
       </c>
       <c r="R10">
-        <v>3142.658047314158</v>
+        <v>3142.658047314159</v>
       </c>
       <c r="S10">
-        <v>0.1432145837825542</v>
+        <v>0.04298039978636521</v>
       </c>
       <c r="T10">
-        <v>0.1432145837825542</v>
+        <v>0.04298039978636523</v>
       </c>
     </row>
   </sheetData>
